--- a/구조도 ver.02.xlsx
+++ b/구조도 ver.02.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\강의\workspace\git\lecture_js\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2924,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2934,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B14:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3098,16 +3103,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>